--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>サーバ</t>
     <phoneticPr fontId="1"/>
@@ -164,6 +164,10 @@
     <rPh sb="20" eb="21">
       <t>ヒク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -548,7 +552,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,6 +590,9 @@
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
